--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AY53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6434,6 +6434,786 @@
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111974126</v>
+      </c>
+      <c r="B48" t="n">
+        <v>88032</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6276</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Goliatmusseron</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tricholoma matsutake</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Aloppmoarna i S, Jmt</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>439289.9461055733</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6952209.002200785</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111974124</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Aloppmoarna i S, Jmt</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>439276.3867801811</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6952196.853249942</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111974133</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Aloppmoarna i S, Jmt</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>439389.9449806474</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6952220.480550999</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111974029</v>
+      </c>
+      <c r="B51" t="n">
+        <v>88032</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6276</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Goliatmusseron</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Tricholoma matsutake</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Aloppmoarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>439334.7866423383</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6952296.802153576</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111974125</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Aloppmoarna i S, Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>439278.8711310769</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6952206.909989387</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111974134</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Aloppmoarna i S, Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>439399.8222122483</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6952207.441512506</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,7 +6436,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974126</v>
+        <v>111974029</v>
       </c>
       <c r="B48" t="n">
         <v>88032</v>
@@ -6481,14 +6481,14 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439289.9461055733</v>
+        <v>439334.7866423383</v>
       </c>
       <c r="R48" t="n">
-        <v>6952209.002200785</v>
+        <v>6952296.802153576</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974124</v>
+        <v>111974134</v>
       </c>
       <c r="B49" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6578,25 +6578,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6615,10 +6615,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439276.3867801811</v>
+        <v>439399.8222122483</v>
       </c>
       <c r="R49" t="n">
-        <v>6952196.853249942</v>
+        <v>6952207.441512506</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6696,10 +6696,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974133</v>
+        <v>111974126</v>
       </c>
       <c r="B50" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6708,25 +6708,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439389.9449806474</v>
+        <v>439289.9461055733</v>
       </c>
       <c r="R50" t="n">
-        <v>6952220.480550999</v>
+        <v>6952209.002200785</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6826,10 +6826,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974029</v>
+        <v>111974124</v>
       </c>
       <c r="B51" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6838,25 +6838,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6871,14 +6871,14 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439334.7866423383</v>
+        <v>439276.3867801811</v>
       </c>
       <c r="R51" t="n">
-        <v>6952296.802153576</v>
+        <v>6952196.853249942</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974134</v>
+        <v>111974133</v>
       </c>
       <c r="B53" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7102,21 +7102,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7135,10 +7135,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439399.8222122483</v>
+        <v>439389.9449806474</v>
       </c>
       <c r="R53" t="n">
-        <v>6952207.441512506</v>
+        <v>6952220.480550999</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974029</v>
+        <v>111974125</v>
       </c>
       <c r="B48" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6448,25 +6448,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6481,14 +6481,14 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439334.7866423383</v>
+        <v>439278.8711310769</v>
       </c>
       <c r="R48" t="n">
-        <v>6952296.802153576</v>
+        <v>6952206.909989387</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6696,10 +6696,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974126</v>
+        <v>111974133</v>
       </c>
       <c r="B50" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6708,25 +6708,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439289.9461055733</v>
+        <v>439389.9449806474</v>
       </c>
       <c r="R50" t="n">
-        <v>6952209.002200785</v>
+        <v>6952220.480550999</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6826,10 +6826,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974124</v>
+        <v>111974126</v>
       </c>
       <c r="B51" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6838,25 +6838,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6875,10 +6875,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439276.3867801811</v>
+        <v>439289.9461055733</v>
       </c>
       <c r="R51" t="n">
-        <v>6952196.853249942</v>
+        <v>6952209.002200785</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111974125</v>
+        <v>111974124</v>
       </c>
       <c r="B52" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6968,25 +6968,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7005,10 +7005,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>439278.8711310769</v>
+        <v>439276.3867801811</v>
       </c>
       <c r="R52" t="n">
-        <v>6952206.909989387</v>
+        <v>6952196.853249942</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974133</v>
+        <v>111974029</v>
       </c>
       <c r="B53" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7098,25 +7098,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7131,14 +7131,14 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439389.9449806474</v>
+        <v>439334.7866423383</v>
       </c>
       <c r="R53" t="n">
-        <v>6952220.480550999</v>
+        <v>6952296.802153576</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974125</v>
+        <v>111974134</v>
       </c>
       <c r="B48" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6452,21 +6452,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439278.8711310769</v>
+        <v>439399.8222122483</v>
       </c>
       <c r="R48" t="n">
-        <v>6952206.909989387</v>
+        <v>6952207.441512506</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974134</v>
+        <v>111974133</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6582,21 +6582,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6615,10 +6615,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439399.8222122483</v>
+        <v>439389.9449806474</v>
       </c>
       <c r="R49" t="n">
-        <v>6952207.441512506</v>
+        <v>6952220.480550999</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6696,10 +6696,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974133</v>
+        <v>111974029</v>
       </c>
       <c r="B50" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6708,25 +6708,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6741,14 +6741,14 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439389.9449806474</v>
+        <v>439334.7866423383</v>
       </c>
       <c r="R50" t="n">
-        <v>6952220.480550999</v>
+        <v>6952296.802153576</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6826,10 +6826,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974126</v>
+        <v>111974125</v>
       </c>
       <c r="B51" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6838,25 +6838,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6875,10 +6875,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439289.9461055733</v>
+        <v>439278.8711310769</v>
       </c>
       <c r="R51" t="n">
-        <v>6952209.002200785</v>
+        <v>6952206.909989387</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974029</v>
+        <v>111974126</v>
       </c>
       <c r="B53" t="n">
         <v>88032</v>
@@ -7131,14 +7131,14 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439334.7866423383</v>
+        <v>439289.9461055733</v>
       </c>
       <c r="R53" t="n">
-        <v>6952296.802153576</v>
+        <v>6952209.002200785</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974134</v>
+        <v>111974125</v>
       </c>
       <c r="B48" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6452,21 +6452,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439399.8222122483</v>
+        <v>439278.8711310769</v>
       </c>
       <c r="R48" t="n">
-        <v>6952207.441512506</v>
+        <v>6952206.909989387</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974133</v>
+        <v>111974029</v>
       </c>
       <c r="B49" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6578,25 +6578,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6611,14 +6611,14 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439389.9449806474</v>
+        <v>439334.7866423383</v>
       </c>
       <c r="R49" t="n">
-        <v>6952220.480550999</v>
+        <v>6952296.802153576</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6696,10 +6696,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974029</v>
+        <v>111974124</v>
       </c>
       <c r="B50" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6708,25 +6708,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6741,14 +6741,14 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439334.7866423383</v>
+        <v>439276.3867801811</v>
       </c>
       <c r="R50" t="n">
-        <v>6952296.802153576</v>
+        <v>6952196.853249942</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6826,10 +6826,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974125</v>
+        <v>111974126</v>
       </c>
       <c r="B51" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6838,25 +6838,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6875,10 +6875,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439278.8711310769</v>
+        <v>439289.9461055733</v>
       </c>
       <c r="R51" t="n">
-        <v>6952206.909989387</v>
+        <v>6952209.002200785</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111974124</v>
+        <v>111974134</v>
       </c>
       <c r="B52" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6968,25 +6968,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7005,10 +7005,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>439276.3867801811</v>
+        <v>439399.8222122483</v>
       </c>
       <c r="R52" t="n">
-        <v>6952196.853249942</v>
+        <v>6952207.441512506</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974126</v>
+        <v>111974133</v>
       </c>
       <c r="B53" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7098,25 +7098,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7135,10 +7135,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439289.9461055733</v>
+        <v>439389.9449806474</v>
       </c>
       <c r="R53" t="n">
-        <v>6952209.002200785</v>
+        <v>6952220.480550999</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974125</v>
+        <v>111974133</v>
       </c>
       <c r="B48" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6452,21 +6452,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439278.8711310769</v>
+        <v>439390</v>
       </c>
       <c r="R48" t="n">
-        <v>6952206.909989387</v>
+        <v>6952220</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6518,19 +6518,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6566,10 +6556,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974029</v>
+        <v>111974134</v>
       </c>
       <c r="B49" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6578,25 +6568,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6611,14 +6601,14 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439334.7866423383</v>
+        <v>439400</v>
       </c>
       <c r="R49" t="n">
-        <v>6952296.802153576</v>
+        <v>6952207</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6648,19 +6638,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6696,10 +6676,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974124</v>
+        <v>111974126</v>
       </c>
       <c r="B50" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6708,25 +6688,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6745,10 +6725,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439276.3867801811</v>
+        <v>439290</v>
       </c>
       <c r="R50" t="n">
-        <v>6952196.853249942</v>
+        <v>6952209</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6778,19 +6758,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6826,7 +6796,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974126</v>
+        <v>111974029</v>
       </c>
       <c r="B51" t="n">
         <v>88032</v>
@@ -6871,14 +6841,14 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439289.9461055733</v>
+        <v>439335</v>
       </c>
       <c r="R51" t="n">
-        <v>6952209.002200785</v>
+        <v>6952297</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6908,19 +6878,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6956,10 +6916,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111974134</v>
+        <v>111974125</v>
       </c>
       <c r="B52" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6972,21 +6932,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7005,10 +6965,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>439399.8222122483</v>
+        <v>439279</v>
       </c>
       <c r="R52" t="n">
-        <v>6952207.441512506</v>
+        <v>6952207</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7038,19 +6998,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7086,10 +7036,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974133</v>
+        <v>111974124</v>
       </c>
       <c r="B53" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7098,25 +7048,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7135,10 +7085,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439389.9449806474</v>
+        <v>439276</v>
       </c>
       <c r="R53" t="n">
-        <v>6952220.480550999</v>
+        <v>6952197</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -7168,19 +7118,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974133</v>
+        <v>111974134</v>
       </c>
       <c r="B48" t="n">
-        <v>90682</v>
+        <v>90792</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6452,21 +6452,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6485,10 +6485,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439390</v>
+        <v>439400</v>
       </c>
       <c r="R48" t="n">
-        <v>6952220</v>
+        <v>6952207</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974134</v>
+        <v>111974029</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>88166</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6568,25 +6568,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6601,14 +6601,14 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439400</v>
+        <v>439335</v>
       </c>
       <c r="R49" t="n">
-        <v>6952207</v>
+        <v>6952297</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974126</v>
+        <v>111974124</v>
       </c>
       <c r="B50" t="n">
-        <v>88032</v>
+        <v>90800</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6688,25 +6688,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6725,10 +6725,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439290</v>
+        <v>439276</v>
       </c>
       <c r="R50" t="n">
-        <v>6952209</v>
+        <v>6952197</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974029</v>
+        <v>111974126</v>
       </c>
       <c r="B51" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6841,14 +6841,14 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439335</v>
+        <v>439290</v>
       </c>
       <c r="R51" t="n">
-        <v>6952297</v>
+        <v>6952209</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6919,7 +6919,7 @@
         <v>111974125</v>
       </c>
       <c r="B52" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974124</v>
+        <v>111974133</v>
       </c>
       <c r="B53" t="n">
-        <v>90666</v>
+        <v>90816</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7048,25 +7048,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439276</v>
+        <v>439390</v>
       </c>
       <c r="R53" t="n">
-        <v>6952197</v>
+        <v>6952220</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974134</v>
+        <v>111974029</v>
       </c>
       <c r="B48" t="n">
-        <v>90792</v>
+        <v>88180</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6448,25 +6448,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6481,14 +6481,14 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439400</v>
+        <v>439335</v>
       </c>
       <c r="R48" t="n">
-        <v>6952207</v>
+        <v>6952297</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974029</v>
+        <v>111974126</v>
       </c>
       <c r="B49" t="n">
-        <v>88166</v>
+        <v>88180</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6601,14 +6601,14 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439335</v>
+        <v>439290</v>
       </c>
       <c r="R49" t="n">
-        <v>6952297</v>
+        <v>6952209</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974124</v>
+        <v>111974134</v>
       </c>
       <c r="B50" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6688,25 +6688,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6725,10 +6725,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439276</v>
+        <v>439400</v>
       </c>
       <c r="R50" t="n">
-        <v>6952197</v>
+        <v>6952207</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974126</v>
+        <v>111974133</v>
       </c>
       <c r="B51" t="n">
-        <v>88166</v>
+        <v>90830</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6808,25 +6808,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439290</v>
+        <v>439390</v>
       </c>
       <c r="R51" t="n">
-        <v>6952209</v>
+        <v>6952220</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6916,10 +6916,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111974125</v>
+        <v>111974124</v>
       </c>
       <c r="B52" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6928,25 +6928,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -6965,10 +6965,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>439279</v>
+        <v>439276</v>
       </c>
       <c r="R52" t="n">
-        <v>6952207</v>
+        <v>6952197</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974133</v>
+        <v>111974125</v>
       </c>
       <c r="B53" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7052,21 +7052,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439390</v>
+        <v>439279</v>
       </c>
       <c r="R53" t="n">
-        <v>6952220</v>
+        <v>6952207</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -6436,10 +6436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974029</v>
+        <v>111974133</v>
       </c>
       <c r="B48" t="n">
-        <v>88180</v>
+        <v>90830</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6448,25 +6448,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6481,14 +6481,14 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Aloppmoarna, Jmt</t>
+          <t>Aloppmoarna i S, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439335</v>
+        <v>439390</v>
       </c>
       <c r="R48" t="n">
-        <v>6952297</v>
+        <v>6952220</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974126</v>
+        <v>111974125</v>
       </c>
       <c r="B49" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6568,25 +6568,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6605,10 +6605,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439290</v>
+        <v>439279</v>
       </c>
       <c r="R49" t="n">
-        <v>6952209</v>
+        <v>6952207</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974134</v>
+        <v>111974126</v>
       </c>
       <c r="B50" t="n">
-        <v>90806</v>
+        <v>88180</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6688,25 +6688,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6725,10 +6725,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439400</v>
+        <v>439290</v>
       </c>
       <c r="R50" t="n">
-        <v>6952207</v>
+        <v>6952209</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974133</v>
+        <v>111974124</v>
       </c>
       <c r="B51" t="n">
-        <v>90830</v>
+        <v>90814</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6808,25 +6808,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439390</v>
+        <v>439276</v>
       </c>
       <c r="R51" t="n">
-        <v>6952220</v>
+        <v>6952197</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6916,10 +6916,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111974124</v>
+        <v>111974029</v>
       </c>
       <c r="B52" t="n">
-        <v>90814</v>
+        <v>88180</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6928,25 +6928,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -6961,14 +6961,14 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Aloppmoarna i S, Jmt</t>
+          <t>Aloppmoarna, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>439276</v>
+        <v>439335</v>
       </c>
       <c r="R52" t="n">
-        <v>6952197</v>
+        <v>6952297</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111974125</v>
+        <v>111974134</v>
       </c>
       <c r="B53" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -7052,21 +7052,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>439279</v>
+        <v>439400</v>
       </c>
       <c r="R53" t="n">
         <v>6952207</v>

--- a/artfynd/A 17749-2022.xlsx
+++ b/artfynd/A 17749-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7154,6 +7154,119 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112547539</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90860</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>232140</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tajgataggsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Phellodon secretus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Niemelä &amp; Kinnunen</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Gustavbacke (Gustavbacke), Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>439641</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6952547</v>
+      </c>
+      <c r="S54" t="n">
+        <v>25</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
